--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_7.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_7.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9671429253175845</v>
+        <v>0.9185383603352058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7001188115155963</v>
+        <v>0.6861904926737431</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6961546279039206</v>
+        <v>0.6588184874838215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5881587087993944</v>
+        <v>0.638345025397675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1378941135734077</v>
+        <v>0.3418770751927257</v>
       </c>
       <c r="G2" t="n">
-        <v>2.005306888221113</v>
+        <v>2.098445620450597</v>
       </c>
       <c r="H2" t="n">
-        <v>1.086837278020737</v>
+        <v>1.220386487429624</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05224275759334791</v>
+        <v>0.6350727624934113</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3554822030349724</v>
+        <v>1.410018646806963</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3713409667319346</v>
+        <v>0.5847025527503071</v>
       </c>
       <c r="L2" t="n">
-        <v>1.019233409570194</v>
+        <v>0.7207029497207054</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3871497204674851</v>
+        <v>0.6095945509220307</v>
       </c>
       <c r="N2" t="n">
-        <v>133.9625383625823</v>
+        <v>36.1466080715815</v>
       </c>
       <c r="O2" t="n">
-        <v>213.1894669790154</v>
+        <v>56.86749709434091</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9668374879699296</v>
+        <v>0.9187328577647527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6996242376101888</v>
+        <v>0.6860054653825758</v>
       </c>
       <c r="D3" t="n">
-        <v>0.695747652081129</v>
+        <v>0.6586784991524459</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6388742377735249</v>
+        <v>0.6429142744686416</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1391759687815839</v>
+        <v>0.3410608110883002</v>
       </c>
       <c r="G3" t="n">
-        <v>2.008614106203876</v>
+        <v>2.099682898798605</v>
       </c>
       <c r="H3" t="n">
-        <v>1.088293006941048</v>
+        <v>1.220887217573964</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0458094077981149</v>
+        <v>0.6270490773962825</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3446299617601061</v>
+        <v>1.41053022747317</v>
       </c>
       <c r="K3" t="n">
-        <v>0.373062955520357</v>
+        <v>0.5840041190679225</v>
       </c>
       <c r="L3" t="n">
-        <v>1.019412202163944</v>
+        <v>0.7213697980505807</v>
       </c>
       <c r="M3" t="n">
-        <v>0.388945017883639</v>
+        <v>0.6088663834718299</v>
       </c>
       <c r="N3" t="n">
-        <v>133.9440323680976</v>
+        <v>36.15138897192114</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1709609845307</v>
+        <v>56.87227799468055</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9664957538481844</v>
+        <v>0.9189216001486394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6991060199342198</v>
+        <v>0.685792093130053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6952998560176714</v>
+        <v>0.6585177748377953</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6856211453811676</v>
+        <v>0.647456075728241</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1406101537859188</v>
+        <v>0.3402686996793766</v>
       </c>
       <c r="G4" t="n">
-        <v>2.012079430189254</v>
+        <v>2.101109720033714</v>
       </c>
       <c r="H4" t="n">
-        <v>1.089894747495328</v>
+        <v>1.221462119128139</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03987948427037633</v>
+        <v>0.6190735911588774</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3347537341046894</v>
+        <v>1.41106136540438</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3749802045254107</v>
+        <v>0.5833255520542338</v>
       </c>
       <c r="L4" t="n">
-        <v>1.019612241649843</v>
+        <v>0.7220169147953353</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3909438881480903</v>
+        <v>0.6081589284555411</v>
       </c>
       <c r="N4" t="n">
-        <v>133.9235281693492</v>
+        <v>36.15603936062902</v>
       </c>
       <c r="O4" t="n">
-        <v>213.1504567857822</v>
+        <v>56.87692838338843</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9661165829314108</v>
+        <v>0.9191044647266295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6985635477651989</v>
+        <v>0.6855795857769217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6948102015776934</v>
+        <v>0.6583362671796382</v>
       </c>
       <c r="E5" t="n">
-        <v>0.728255109088613</v>
+        <v>0.6519684773458096</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1422014530104146</v>
+        <v>0.3395012561644062</v>
       </c>
       <c r="G5" t="n">
-        <v>2.015706944081352</v>
+        <v>2.102530757682609</v>
       </c>
       <c r="H5" t="n">
-        <v>1.091646213035334</v>
+        <v>1.222111361496947</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03447129456526307</v>
+        <v>0.6111497312316081</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3267722590092139</v>
+        <v>1.411610125306163</v>
       </c>
       <c r="K5" t="n">
-        <v>0.37709607928274</v>
+        <v>0.5826673632222816</v>
       </c>
       <c r="L5" t="n">
-        <v>1.019834195357223</v>
+        <v>0.7226438790627299</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3931498400743038</v>
+        <v>0.607472719162374</v>
       </c>
       <c r="N5" t="n">
-        <v>133.9010210871783</v>
+        <v>36.1605552638956</v>
       </c>
       <c r="O5" t="n">
-        <v>213.1279497036113</v>
+        <v>56.881444286655</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9656987929304094</v>
+        <v>0.9207600865376542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6979968161058635</v>
+        <v>0.6785776273856979</v>
       </c>
       <c r="D6" t="n">
-        <v>0.69427849743586</v>
+        <v>0.6544321217166634</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7666191002522249</v>
+        <v>0.7032582433322696</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1439548282699214</v>
+        <v>0.3325529655983497</v>
       </c>
       <c r="G6" t="n">
-        <v>2.019496681296887</v>
+        <v>2.149352885685776</v>
       </c>
       <c r="H6" t="n">
-        <v>1.093548087920695</v>
+        <v>1.236076263442648</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02960475802923209</v>
+        <v>0.5210839623078468</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3188553839163596</v>
+        <v>1.419604651474273</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3794137955714333</v>
+        <v>0.5766740549030707</v>
       </c>
       <c r="L6" t="n">
-        <v>1.020078755357809</v>
+        <v>0.7283202967005287</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3955662263437408</v>
+        <v>0.6012242633001557</v>
       </c>
       <c r="N6" t="n">
-        <v>133.8765114423759</v>
+        <v>36.20191227307941</v>
       </c>
       <c r="O6" t="n">
-        <v>213.1034400588089</v>
+        <v>56.92280129583882</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9652411952395854</v>
+        <v>0.9208461914290068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6974055580228351</v>
+        <v>0.6781502906905971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6937038917556289</v>
+        <v>0.6539534053239646</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8005736228354218</v>
+        <v>0.7072421796843102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.145875267887852</v>
+        <v>0.3321916017891194</v>
       </c>
       <c r="G7" t="n">
-        <v>2.023450426820591</v>
+        <v>2.15221048813362</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09560341912133</v>
+        <v>1.23778860422176</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0252975699681696</v>
+        <v>0.514088097070626</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3110230303851341</v>
+        <v>1.420396596358066</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3819362091866285</v>
+        <v>0.5763606525337408</v>
       </c>
       <c r="L7" t="n">
-        <v>1.020346617420731</v>
+        <v>0.7286155134708805</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3981960243286509</v>
+        <v>0.600897518743131</v>
       </c>
       <c r="N7" t="n">
-        <v>133.850006703913</v>
+        <v>36.20408672541828</v>
       </c>
       <c r="O7" t="n">
-        <v>213.0769353203461</v>
+        <v>56.92497574817769</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9647431244599803</v>
+        <v>0.9209231694264928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6967895353795119</v>
+        <v>0.6777218118710393</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6930859028627177</v>
+        <v>0.6534493813801812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8300252486411824</v>
+        <v>0.711173345446565</v>
       </c>
       <c r="F8" t="n">
-        <v>0.147965564401291</v>
+        <v>0.3318685416009988</v>
       </c>
       <c r="G8" t="n">
-        <v>2.027569773073016</v>
+        <v>2.155075727972966</v>
       </c>
       <c r="H8" t="n">
-        <v>1.097813929558219</v>
+        <v>1.239591468643686</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02156158190535323</v>
+        <v>0.507184897956056</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3070069943244247</v>
+        <v>1.421209985092741</v>
       </c>
       <c r="K8" t="n">
-        <v>0.384662923091492</v>
+        <v>0.5760803256499902</v>
       </c>
       <c r="L8" t="n">
-        <v>1.020638171047816</v>
+        <v>0.7288794380336896</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4010388200895203</v>
+        <v>0.6006052577635826</v>
       </c>
       <c r="N8" t="n">
-        <v>133.8215514105096</v>
+        <v>36.20603269502252</v>
       </c>
       <c r="O8" t="n">
-        <v>213.0484800269427</v>
+        <v>56.92692171778193</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9642034625834109</v>
+        <v>0.9209908088441267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6961485568635991</v>
+        <v>0.6772648873987324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6924251749175031</v>
+        <v>0.6529206470889795</v>
       </c>
       <c r="E9" t="n">
-        <v>0.854873281582564</v>
+        <v>0.7150492689058567</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1502304098514162</v>
+        <v>0.3315846734347853</v>
       </c>
       <c r="G9" t="n">
-        <v>2.03185599936036</v>
+        <v>2.158131184023226</v>
       </c>
       <c r="H9" t="n">
-        <v>1.100177315107043</v>
+        <v>1.241482720545539</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01840956730807039</v>
+        <v>0.5003787053377682</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3146116974344226</v>
+        <v>1.422046138750513</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3875956783188071</v>
+        <v>0.5758338939614316</v>
       </c>
       <c r="L9" t="n">
-        <v>1.020954070682881</v>
+        <v>0.7291113446084343</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4040964287785025</v>
+        <v>0.6003483349678582</v>
       </c>
       <c r="N9" t="n">
-        <v>133.7911701955039</v>
+        <v>36.20774415365806</v>
       </c>
       <c r="O9" t="n">
-        <v>213.0180988119369</v>
+        <v>56.92863317641746</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9636217143854116</v>
+        <v>0.9210487377122252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6954827295510208</v>
+        <v>0.6767949332694361</v>
       </c>
       <c r="D10" t="n">
-        <v>0.691721749586397</v>
+        <v>0.652365431458936</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8750619568869309</v>
+        <v>0.718867935864568</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1526718825893708</v>
+        <v>0.3313415583676662</v>
       </c>
       <c r="G10" t="n">
-        <v>2.036308389665424</v>
+        <v>2.161273769449771</v>
       </c>
       <c r="H10" t="n">
-        <v>1.102693426729466</v>
+        <v>1.243468694660953</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0158486000311319</v>
+        <v>0.4936730561836876</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3243830391098428</v>
+        <v>1.422901582632502</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3907324949237915</v>
+        <v>0.575622756992517</v>
       </c>
       <c r="L10" t="n">
-        <v>1.021294606213418</v>
+        <v>0.7293099578704862</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4073667861604667</v>
+        <v>0.600128209461063</v>
       </c>
       <c r="N10" t="n">
-        <v>133.7589284373743</v>
+        <v>36.20921107450901</v>
       </c>
       <c r="O10" t="n">
-        <v>212.9858570538073</v>
+        <v>56.93010009726842</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9629973511069996</v>
+        <v>0.9210965451202977</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6947922992278863</v>
+        <v>0.6763039810166419</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6909762063836794</v>
+        <v>0.6517840418321341</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8905580923657823</v>
+        <v>0.7226261693901448</v>
       </c>
       <c r="F11" t="n">
-        <v>0.155292201703491</v>
+        <v>0.3311409209030674</v>
       </c>
       <c r="G11" t="n">
-        <v>2.040925300415364</v>
+        <v>2.164556769424832</v>
       </c>
       <c r="H11" t="n">
-        <v>1.105360191536508</v>
+        <v>1.245548291645115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01388288929072685</v>
+        <v>0.4870735292455945</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3344472191216689</v>
+        <v>1.423777344536812</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3940713155045555</v>
+        <v>0.5754484519946746</v>
       </c>
       <c r="L11" t="n">
-        <v>1.021660087156878</v>
+        <v>0.7294738689838778</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4108477472456653</v>
+        <v>0.5999464839386015</v>
       </c>
       <c r="N11" t="n">
-        <v>133.724893528979</v>
+        <v>36.21042250259661</v>
       </c>
       <c r="O11" t="n">
-        <v>212.9518221454121</v>
+        <v>56.93131152535602</v>
       </c>
     </row>
   </sheetData>
